--- a/Modele/Fluke 2.xlsx
+++ b/Modele/Fluke 2.xlsx
@@ -523,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F27"/>
+  <dimension ref="B5:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,12 +589,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr"/>
@@ -606,8 +606,16 @@
           <t>200</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
@@ -617,8 +625,16 @@
           <t>360</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
       <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
@@ -834,6 +850,591 @@
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-675</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -855,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F14"/>
+  <dimension ref="B5:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +1501,7 @@
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>mV</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -919,8 +1520,16 @@
           <t>40</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
       <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
@@ -930,8 +1539,16 @@
           <t>200</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
@@ -941,8 +1558,16 @@
           <t>360</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
       <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
@@ -959,14 +1584,10 @@
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>750</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
@@ -975,7 +1596,7 @@
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
@@ -986,7 +1607,7 @@
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
@@ -997,12 +1618,703 @@
       <c r="B14" s="4" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-675</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-675</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1020,7 +2332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F23"/>
+  <dimension ref="B5:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1065,7 +2377,7 @@
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>mA</t>
+          <t>mV</t>
         </is>
       </c>
       <c r="C6" s="5" t="n"/>
@@ -1076,45 +2388,69 @@
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
       <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
       <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>-360</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
@@ -1124,14 +2460,10 @@
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
@@ -1140,7 +2472,7 @@
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
@@ -1151,7 +2483,7 @@
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
@@ -1162,7 +2494,7 @@
       <c r="B14" s="4" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
@@ -1170,14 +2502,10 @@
       <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
+      <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-3.6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
@@ -1188,7 +2516,7 @@
       <c r="B16" s="3" t="n"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
@@ -1199,7 +2527,7 @@
       <c r="B17" s="3" t="n"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
@@ -1210,7 +2538,7 @@
       <c r="B18" s="4" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
@@ -1218,11 +2546,7 @@
       <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="5" t="n"/>
       <c r="D19" s="5" t="n"/>
       <c r="E19" s="5" t="n"/>
@@ -1231,12 +2555,12 @@
     <row r="20">
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1247,7 +2571,7 @@
       <c r="B21" s="3" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1258,7 +2582,7 @@
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1269,12 +2593,630 @@
       <c r="B23" s="4" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-360</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-675</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1295,7 +3237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1343,113 +3285,806 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>mA</t>
+          <t>mV</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>167.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>327.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-360</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>40</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>A</t>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-3.6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
+          <t>-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+    </row>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-675</t>
+        </is>
+      </c>
+    </row>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
           <t>-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>180</t>
         </is>
       </c>
     </row>
@@ -1464,7 +4099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1535,7 +4170,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>mV</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1547,16 +4182,24 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1564,35 +4207,47 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>kΩ</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-360</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1601,12 +4256,12 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -1615,12 +4270,12 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1632,7 +4287,7 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1641,14 +4296,10 @@
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1660,7 +4311,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>-3.6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1671,24 +4322,24 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MΩ</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1700,7 +4351,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1709,14 +4360,10 @@
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1725,15 +4372,1055 @@
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-675</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
